--- a/doc/ue_macro.xlsx
+++ b/doc/ue_macro.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D705C1-1A2E-40A7-8ABA-DB198F5555D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3A842D-497C-4271-A1E1-9590541F5C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cast" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>UFUNCTION</t>
   </si>
@@ -105,6 +106,161 @@
   </si>
   <si>
     <t>BlueprintNativeEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return Cast&lt;class UAnimSingleNodeInstance&gt;(AnimScriptInstance);</t>
+  </si>
+  <si>
+    <t>// Dynamically cast an object type-safely.</t>
+  </si>
+  <si>
+    <t>template &lt;typename To, typename From&gt;</t>
+  </si>
+  <si>
+    <t>FORCEINLINE To* Cast(From* Src)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>return TCastImpl&lt;From, To&gt;::DoCast(Src);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>/** Returns true if this object is of the template type. */</t>
+  </si>
+  <si>
+    <t>template&lt;class T&gt;</t>
+  </si>
+  <si>
+    <t>bool IsA() const</t>
+  </si>
+  <si>
+    <t>return IsA(T::StaticClass());</t>
+  </si>
+  <si>
+    <t>bool UStruct::IsChildOf( const UStruct* SomeBase ) const</t>
+  </si>
+  <si>
+    <t>if (SomeBase == nullptr)</t>
+  </si>
+  <si>
+    <t>return false;</t>
+  </si>
+  <si>
+    <t>bool bOldResult = false;</t>
+  </si>
+  <si>
+    <t>for ( const UStruct* TempStruct=this; TempStruct; TempStruct=TempStruct-&gt;GetSuperStruct() )</t>
+  </si>
+  <si>
+    <t>if ( TempStruct == SomeBase )</t>
+  </si>
+  <si>
+    <t>bOldResult = true;</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>#if USTRUCT_FAST_ISCHILDOF_IMPL == USTRUCT_ISCHILDOF_STRUCTARRAY</t>
+  </si>
+  <si>
+    <t>const bool bNewResult = IsChildOfUsingStructArray(*SomeBase);</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>#if USTRUCT_FAST_ISCHILDOF_COMPARE_WITH_OUTERWALK</t>
+  </si>
+  <si>
+    <t>ensureMsgf(bOldResult == bNewResult, TEXT("New cast code failed"));</t>
+  </si>
+  <si>
+    <t>return bOldResult;</t>
+  </si>
+  <si>
+    <t>template &lt;typename OtherClassType&gt;</t>
+  </si>
+  <si>
+    <t>FORCEINLINE bool IsA( OtherClassType SomeBase ) const</t>
+  </si>
+  <si>
+    <t>// We have a cyclic dependency between UObjectBaseUtility and UClass,</t>
+  </si>
+  <si>
+    <t>// so we use a template to allow inlining of something we haven't yet seen, because it delays compilation until the function is called.</t>
+  </si>
+  <si>
+    <t>// 'static_assert' that this thing is actually a UClass pointer or convertible to it.</t>
+  </si>
+  <si>
+    <t>const UClass* SomeBaseClass = SomeBase;</t>
+  </si>
+  <si>
+    <t>(void)SomeBaseClass;</t>
+  </si>
+  <si>
+    <t>checkfSlow(SomeBaseClass, TEXT("IsA(NULL) cannot yield meaningful results"));</t>
+  </si>
+  <si>
+    <t>const UClass* ThisClass = GetClass();</t>
+  </si>
+  <si>
+    <t>// Stop the compiler doing some unnecessary branching for nullptr checks</t>
+  </si>
+  <si>
+    <t>UE_ASSUME(SomeBaseClass);</t>
+  </si>
+  <si>
+    <t>UE_ASSUME(ThisClass);</t>
+  </si>
+  <si>
+    <t>return IsChildOfWorkaround(ThisClass, SomeBaseClass);</t>
+  </si>
+  <si>
+    <t>取其两个的Class对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template &lt;typename ClassType&gt;</t>
+  </si>
+  <si>
+    <t>static FORCEINLINE bool IsChildOfWorkaround(const ClassType* ObjClass, const ClassType* TestCls)</t>
+  </si>
+  <si>
+    <t>return ObjClass-&gt;IsChildOf(TestCls);</t>
+  </si>
+  <si>
+    <t>不断的和父类进行比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template &lt;typename From, typename To&gt;</t>
+  </si>
+  <si>
+    <t>struct TCastImpl&lt;From, To, ECastType::UObjectToUObject&gt;</t>
+  </si>
+  <si>
+    <t>自动推导参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORCEINLINE static To* DoCast( UObject* Src )</t>
+  </si>
+  <si>
+    <t>return Src &amp;&amp; Src-&gt;IsA&lt;To&gt;() ? (To*)Src : nullptr;</t>
+  </si>
+  <si>
+    <t>Uobject的函数IsA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用Src自己的父类不断的和目标目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -596,4 +752,351 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1437B9B6-D129-441A-B4DA-77018AD58633}">
+  <dimension ref="C5:M83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="R55" sqref="R55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>40</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>41</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_macro.xlsx
+++ b/doc/ue_macro.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3A842D-497C-4271-A1E1-9590541F5C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B0F9FF-73EA-460B-AEF8-4D489DD60966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="cast" sheetId="2" r:id="rId2"/>
+    <sheet name="GIsClient&amp;GIsServer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
   <si>
     <t>UFUNCTION</t>
   </si>
@@ -261,6 +262,78 @@
   </si>
   <si>
     <t>用Src自己的父类不断的和目标目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意这两个宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>= false;</t>
+  </si>
+  <si>
+    <t>/* Whether engine was launched as a client */</t>
+  </si>
+  <si>
+    <t>GIsServer</t>
+  </si>
+  <si>
+    <t>/* Whether engine was launched as a server, true if GIsClient */</t>
+  </si>
+  <si>
+    <t>这两个宏设置的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 GuardedMain( const TCHAR* CmdLine )</t>
+  </si>
+  <si>
+    <t>int32 ErrorLevel = EnginePreInit( CmdLine );</t>
+  </si>
+  <si>
+    <t>int32 EnginePreInit( const TCHAR* CmdLine )</t>
+  </si>
+  <si>
+    <t>int32 ErrorLevel = GEngineLoop.PreInit( CmdLine );</t>
+  </si>
+  <si>
+    <t>int32 FEngineLoop::PreInit(const TCHAR* CmdLine)</t>
+  </si>
+  <si>
+    <t>const int32 rv1 = PreInitPreStartupScreen(CmdLine);</t>
+  </si>
+  <si>
+    <t>int32 FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
+  </si>
+  <si>
+    <t>默认设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIsClient = true;</t>
+  </si>
+  <si>
+    <t>GIsServer = false;</t>
+  </si>
+  <si>
+    <t>如果是DS，则设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (IsRunningDedicatedServer())</t>
+  </si>
+  <si>
+    <t>使用宏UE_SERVER区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIsClient = false;</t>
+  </si>
+  <si>
+    <t>GIsClient</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +341,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +372,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -320,10 +401,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -758,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1437B9B6-D129-441A-B4DA-77018AD58633}">
   <dimension ref="C5:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
@@ -1099,4 +1181,128 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F187079C-66FD-48CD-988A-C2A9970A14BE}">
+  <dimension ref="C4:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E16" s="3"/>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E17" s="3"/>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E18" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_macro.xlsx
+++ b/doc/ue_macro.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B0F9FF-73EA-460B-AEF8-4D489DD60966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACED19D6-1CB4-4756-892B-13117BFB3471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="cast" sheetId="2" r:id="rId2"/>
     <sheet name="GIsClient&amp;GIsServer" sheetId="3" r:id="rId3"/>
+    <sheet name="环形队列实现" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
   <si>
     <t>UFUNCTION</t>
   </si>
@@ -334,6 +335,65 @@
   </si>
   <si>
     <t>GIsClient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较精妙，一般我们实现各种前后判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE实现仅仅与操作即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Holds the mask for indexing the buffer's elements. */</t>
+  </si>
+  <si>
+    <t>uint32 IndexMask;</t>
+  </si>
+  <si>
+    <t>/** Holds the buffer's elements. */</t>
+  </si>
+  <si>
+    <t>TArray&lt;ElementType&gt; Elements;</t>
+  </si>
+  <si>
+    <t>环形队列定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndexMask = Elements.Num() - 1;</t>
+  </si>
+  <si>
+    <t>FORCEINLINE uint32 GetNextIndex(uint32 CurrentIndex) const</t>
+  </si>
+  <si>
+    <t>return ((CurrentIndex + 1) &amp; IndexMask);</t>
+  </si>
+  <si>
+    <t>获取下一个位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORCEINLINE uint32 GetPreviousIndex(uint32 CurrentIndex) const</t>
+  </si>
+  <si>
+    <t>return ((CurrentIndex - 1) &amp; IndexMask);</t>
+  </si>
+  <si>
+    <t>获取上一个位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都是通过&amp;操作，就不需要各种if else判断边界了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1187,7 +1247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F187079C-66FD-48CD-988A-C2A9970A14BE}">
   <dimension ref="C4:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -1305,4 +1365,122 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6707E20D-2A81-4FFF-8F74-A516F4BD7FAA}">
+  <dimension ref="B2:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_macro.xlsx
+++ b/doc/ue_macro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACED19D6-1CB4-4756-892B-13117BFB3471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590B8CFC-871F-4859-83A3-8D6FC912E133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="123">
   <si>
     <t>UFUNCTION</t>
   </si>
@@ -314,86 +314,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GIsServer = false;</t>
+  </si>
+  <si>
+    <t>如果是DS，则设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (IsRunningDedicatedServer())</t>
+  </si>
+  <si>
+    <t>使用宏UE_SERVER区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIsClient = false;</t>
+  </si>
+  <si>
+    <t>GIsClient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较精妙，一般我们实现各种前后判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE实现仅仅与操作即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Holds the mask for indexing the buffer's elements. */</t>
+  </si>
+  <si>
+    <t>uint32 IndexMask;</t>
+  </si>
+  <si>
+    <t>/** Holds the buffer's elements. */</t>
+  </si>
+  <si>
+    <t>TArray&lt;ElementType&gt; Elements;</t>
+  </si>
+  <si>
+    <t>环形队列定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndexMask = Elements.Num() - 1;</t>
+  </si>
+  <si>
+    <t>FORCEINLINE uint32 GetNextIndex(uint32 CurrentIndex) const</t>
+  </si>
+  <si>
+    <t>return ((CurrentIndex + 1) &amp; IndexMask);</t>
+  </si>
+  <si>
+    <t>获取下一个位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORCEINLINE uint32 GetPreviousIndex(uint32 CurrentIndex) const</t>
+  </si>
+  <si>
+    <t>return ((CurrentIndex - 1) &amp; IndexMask);</t>
+  </si>
+  <si>
+    <t>获取上一个位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都是通过&amp;操作，就不需要各种if else判断边界了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GIsClient = true;</t>
-  </si>
-  <si>
-    <t>GIsServer = false;</t>
-  </si>
-  <si>
-    <t>如果是DS，则设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (IsRunningDedicatedServer())</t>
-  </si>
-  <si>
-    <t>使用宏UE_SERVER区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GIsClient = false;</t>
-  </si>
-  <si>
-    <t>GIsClient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比较精妙，一般我们实现各种前后判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UE实现仅仅与操作即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/** Holds the mask for indexing the buffer's elements. */</t>
-  </si>
-  <si>
-    <t>uint32 IndexMask;</t>
-  </si>
-  <si>
-    <t>/** Holds the buffer's elements. */</t>
-  </si>
-  <si>
-    <t>TArray&lt;ElementType&gt; Elements;</t>
-  </si>
-  <si>
-    <t>环形队列定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应的数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IndexMask = Elements.Num() - 1;</t>
-  </si>
-  <si>
-    <t>FORCEINLINE uint32 GetNextIndex(uint32 CurrentIndex) const</t>
-  </si>
-  <si>
-    <t>return ((CurrentIndex + 1) &amp; IndexMask);</t>
-  </si>
-  <si>
-    <t>获取下一个位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FORCEINLINE uint32 GetPreviousIndex(uint32 CurrentIndex) const</t>
-  </si>
-  <si>
-    <t>return ((CurrentIndex - 1) &amp; IndexMask);</t>
-  </si>
-  <si>
-    <t>获取上一个位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>都是通过&amp;操作，就不需要各种if else判断边界了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIsEditor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIsEditor=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIsServer = true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIsEditor=false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIsServer = false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:C105"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -900,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1437B9B6-D129-441A-B4DA-77018AD58633}">
   <dimension ref="C5:M83"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
@@ -1245,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F187079C-66FD-48CD-988A-C2A9970A14BE}">
-  <dimension ref="C4:K20"/>
+  <dimension ref="C4:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1263,7 +1296,7 @@
         <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
         <v>78</v>
@@ -1334,31 +1367,81 @@
     <row r="16" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E16" s="3"/>
       <c r="F16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E17" s="3"/>
       <c r="F17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E18" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E18" s="3" t="s">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="F19" t="s">
+      <c r="K19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="1" t="s">
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="G20" t="s">
-        <v>96</v>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1371,7 +1454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6707E20D-2A81-4FFF-8F74-A516F4BD7FAA}">
   <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
@@ -1379,58 +1462,58 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.2">
@@ -1440,7 +1523,7 @@
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.2">
@@ -1450,17 +1533,17 @@
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="K20" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.2">
@@ -1470,7 +1553,7 @@
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">

--- a/doc/ue_macro.xlsx
+++ b/doc/ue_macro.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590B8CFC-871F-4859-83A3-8D6FC912E133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712407BE-5D83-4755-B95C-926B40664C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="cast" sheetId="2" r:id="rId2"/>
     <sheet name="GIsClient&amp;GIsServer" sheetId="3" r:id="rId3"/>
     <sheet name="环形队列实现" sheetId="5" r:id="rId4"/>
+    <sheet name="宏定义" sheetId="6" r:id="rId5"/>
+    <sheet name="NO_LOGGING" sheetId="7" r:id="rId6"/>
+    <sheet name="DO_CHECK" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="242">
   <si>
     <t>UFUNCTION</t>
   </si>
@@ -427,6 +430,378 @@
   </si>
   <si>
     <t>GIsServer = false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同的模式下面定义不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#if UE_BUILD_DEBUG</t>
+  </si>
+  <si>
+    <t>#ifndef DO_GUARD_SLOW</t>
+  </si>
+  <si>
+    <t>#define DO_GUARD_SLOW</t>
+  </si>
+  <si>
+    <t>#ifndef DO_CHECK</t>
+  </si>
+  <si>
+    <t>#define DO_CHECK</t>
+  </si>
+  <si>
+    <t>#ifndef DO_ENSURE</t>
+  </si>
+  <si>
+    <t>#define DO_ENSURE</t>
+  </si>
+  <si>
+    <t>#ifndef STATS</t>
+  </si>
+  <si>
+    <t>#define STATS</t>
+  </si>
+  <si>
+    <t>((WITH_UNREAL_DEVELOPER_TOOLS || !WITH_EDITORONLY_DATA || USE_STATS_WITHOUT_ENGINE || USE_MALLOC_PROFILER || FORCE_USE_STATS) &amp;&amp; !ENABLE_STATNAMEDEVENTS)</t>
+  </si>
+  <si>
+    <t>#ifndef ALLOW_DEBUG_FILES</t>
+  </si>
+  <si>
+    <t>#define ALLOW_DEBUG_FILES</t>
+  </si>
+  <si>
+    <t>#ifndef ALLOW_CONSOLE</t>
+  </si>
+  <si>
+    <t>#define ALLOW_CONSOLE</t>
+  </si>
+  <si>
+    <t>#ifndef NO_LOGGING</t>
+  </si>
+  <si>
+    <t>#define NO_LOGGING</t>
+  </si>
+  <si>
+    <t>#elif UE_BUILD_DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>#elif UE_BUILD_TEST</t>
+  </si>
+  <si>
+    <t>USE_CHECKS_IN_SHIPPING</t>
+  </si>
+  <si>
+    <t>USE_ENSURES_IN_SHIPPING</t>
+  </si>
+  <si>
+    <t>((USE_MALLOC_PROFILER || FORCE_USE_STATS) &amp;&amp; !ENABLE_STATNAMEDEVENTS)</t>
+  </si>
+  <si>
+    <t>!USE_LOGGING_IN_SHIPPING</t>
+  </si>
+  <si>
+    <t>#elif UE_BUILD_SHIPPING</t>
+  </si>
+  <si>
+    <t>#if WITH_EDITOR</t>
+  </si>
+  <si>
+    <t>#else</t>
+  </si>
+  <si>
+    <t>(FORCE_USE_STATS &amp;&amp; !ENABLE_STATNAMEDEVENTS)</t>
+  </si>
+  <si>
+    <t>ALLOW_CONSOLE_IN_SHIPPING</t>
+  </si>
+  <si>
+    <t>#error Exactly one of [UE_BUILD_DEBUG UE_BUILD_DEVELOPMENT UE_BUILD_TEST UE_BUILD_SHIPPING] should be defined to be 1</t>
+  </si>
+  <si>
+    <t>#ifndef NO_LOGGING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否打印日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIPPING包开启日志；该变量控制是否开启宏USE_LOGGING_IN_SHIPPING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bUseLoggingInShipping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (Rules.bUseLoggingInShipping)</t>
+  </si>
+  <si>
+    <t>GlobalCompileEnvironment.Definitions.Add("USE_LOGGING_IN_SHIPPING=1");</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>GlobalCompileEnvironment.Definitions.Add("USE_LOGGING_IN_SHIPPING=0");</t>
+  </si>
+  <si>
+    <t>是否记录日志的宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO_LOGGING</t>
+  </si>
+  <si>
+    <t>！！！就是上面的那个宏定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ifndef DO_CHECK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同模式下面DO_CHECK定义不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试模式下面都是默认1，打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIPPING模式下面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE_CHECKS_IN_SHIPPING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (Rules.bUseChecksInShipping)</t>
+  </si>
+  <si>
+    <t>GlobalCompileEnvironment.Definitions.Add("USE_CHECKS_IN_SHIPPING=1");</t>
+  </si>
+  <si>
+    <t>GlobalCompileEnvironment.Definitions.Add("USE_CHECKS_IN_SHIPPING=0");</t>
+  </si>
+  <si>
+    <t>通过CS里面的配置开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#if DO_CHECK</t>
+  </si>
+  <si>
+    <t>#ifndef checkCode</t>
+  </si>
+  <si>
+    <t>#define checkCode( Code )</t>
+  </si>
+  <si>
+    <t>do { Code; } while ( false );</t>
+  </si>
+  <si>
+    <t>#ifndef verify</t>
+  </si>
+  <si>
+    <t>#define verify(expr)</t>
+  </si>
+  <si>
+    <t>UE_CHECK_IMPL(expr)</t>
+  </si>
+  <si>
+    <t>#ifndef check</t>
+  </si>
+  <si>
+    <t>#define check(expr)</t>
+  </si>
+  <si>
+    <t>// Technically we could use just the _F version (lambda-based) for asserts</t>
+  </si>
+  <si>
+    <t>// both with and without formatted messages. However MSVC emits extra</t>
+  </si>
+  <si>
+    <t>// unnecessary instructions when using a lambda; hence the Exec() impl.</t>
+  </si>
+  <si>
+    <t>#define UE_CHECK_IMPL(expr) \</t>
+  </si>
+  <si>
+    <t>{ \</t>
+  </si>
+  <si>
+    <t>if(UNLIKELY(!(expr))) \</t>
+  </si>
+  <si>
+    <t>struct Impl \</t>
+  </si>
+  <si>
+    <t>static void FORCENOINLINE UE_DEBUG_SECTION ExecCheckImplInternal() \</t>
+  </si>
+  <si>
+    <t>FDebug::CheckVerifyFailed(#expr, __FILE__, __LINE__, TEXT("")); \</t>
+  </si>
+  <si>
+    <t>} \</t>
+  </si>
+  <si>
+    <t>}; \</t>
+  </si>
+  <si>
+    <t>Impl::ExecCheckImplInternal(); \</t>
+  </si>
+  <si>
+    <t>PLATFORM_BREAK(); \</t>
+  </si>
+  <si>
+    <t>CA_ASSUME(false); \</t>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * verifyf, checkf: Same as verify, check but with printf style additional parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Read about __VA_ARGS__ (variadic macros) on http://gcc.gnu.org/onlinedocs/gcc-3.4.4/cpp.pdf.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>#ifndef verifyf</t>
+  </si>
+  <si>
+    <t>#define verifyf(expr, format,  ...)</t>
+  </si>
+  <si>
+    <t>UE_CHECK_F_IMPL(expr, format, ##__VA_ARGS__)</t>
+  </si>
+  <si>
+    <t>#ifndef checkf</t>
+  </si>
+  <si>
+    <t>#define checkf(expr, format,  ...)</t>
+  </si>
+  <si>
+    <t>#define UE_CHECK_F_IMPL(expr, format, ...) \</t>
+  </si>
+  <si>
+    <t>DispatchCheckVerify([&amp;] () FORCENOINLINE UE_DEBUG_SECTION \</t>
+  </si>
+  <si>
+    <t>FDebug::CheckVerifyFailed(#expr, __FILE__, __LINE__, format, ##__VA_ARGS__); \</t>
+  </si>
+  <si>
+    <t>}); \</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Denotes code paths that should never be reached.</t>
+  </si>
+  <si>
+    <t>#ifndef checkNoEntry</t>
+  </si>
+  <si>
+    <t>#define checkNoEntry()       check(!"Enclosing block should never be called")</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Denotes code paths that should not be executed more than once.</t>
+  </si>
+  <si>
+    <t>#ifndef checkNoReentry</t>
+  </si>
+  <si>
+    <t>#define checkNoReentry()     { static bool s_beenHere##__LINE__ = false;                                         \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               check( !"Enclosing block was called more than once" || !s_beenHere##__LINE__ );   \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   s_beenHere##__LINE__ = true; }</t>
+  </si>
+  <si>
+    <t>class FRecursionScopeMarker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public: </t>
+  </si>
+  <si>
+    <t>FRecursionScopeMarker(uint16 &amp;InCounter) : Counter( InCounter ) { ++Counter; }</t>
+  </si>
+  <si>
+    <t>~FRecursionScopeMarker() { --Counter; }</t>
+  </si>
+  <si>
+    <t>private:</t>
+  </si>
+  <si>
+    <t>uint16&amp; Counter;</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Denotes code paths that should never be called recursively.</t>
+  </si>
+  <si>
+    <t>#ifndef checkNoRecursion</t>
+  </si>
+  <si>
+    <t>#define checkNoRecursion()  static uint16 RecursionCounter##__LINE__ = 0;                                            \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            check( !"Enclosing block was entered recursively" || RecursionCounter##__LINE__ == 0 );  \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            const FRecursionScopeMarker ScopeMarker##__LINE__( RecursionCounter##__LINE__ )</t>
+  </si>
+  <si>
+    <t>#ifndef unimplemented</t>
+  </si>
+  <si>
+    <t>#define unimplemented()</t>
+  </si>
+  <si>
+    <t>check(!"Unimplemented function called")</t>
+  </si>
+  <si>
+    <t>#define checkCode(...)</t>
+  </si>
+  <si>
+    <t>{ CA_ASSUME(expr); }</t>
+  </si>
+  <si>
+    <t>#define checkf(expr, format, ...)</t>
+  </si>
+  <si>
+    <t>#define checkNoEntry()</t>
+  </si>
+  <si>
+    <t>#define checkNoReentry()</t>
+  </si>
+  <si>
+    <t>#define checkNoRecursion()</t>
+  </si>
+  <si>
+    <t>{ if(UNLIKELY(!(expr))){ CA_ASSUME(false); } }</t>
+  </si>
+  <si>
+    <t>#define verifyf(expr, format, ...)</t>
+  </si>
+  <si>
+    <t>{ CA_ASSUME(false); }</t>
+  </si>
+  <si>
+    <t>定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1280,7 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F187079C-66FD-48CD-988A-C2A9970A14BE}">
   <dimension ref="C4:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -1566,4 +1941,1452 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEC465A-4E00-4B47-BCF0-7FE5B873D088}">
+  <dimension ref="B2:P118"/>
+  <sheetViews>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97:Q102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>128</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>132</v>
+      </c>
+      <c r="P15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>137</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>139</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>128</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>132</v>
+      </c>
+      <c r="P37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>135</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>137</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>139</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>126</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>128</v>
+      </c>
+      <c r="O53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>130</v>
+      </c>
+      <c r="O56" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>132</v>
+      </c>
+      <c r="P59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>135</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>137</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>139</v>
+      </c>
+      <c r="O68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>126</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>128</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>130</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>132</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>135</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>137</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>139</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>126</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>128</v>
+      </c>
+      <c r="O98" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>130</v>
+      </c>
+      <c r="O101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E102" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>132</v>
+      </c>
+      <c r="P104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E105" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>135</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E108" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E109" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>137</v>
+      </c>
+      <c r="N110" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E111" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="112" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E112" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>139</v>
+      </c>
+      <c r="O113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E114" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="115" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="116" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E8454D-D038-42F4-94F8-B7AB2928BF5E}">
+  <dimension ref="B2:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" t="s">
+        <v>145</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29414D30-86DE-4015-9AAE-8CCCA53E8A41}">
+  <dimension ref="B3:N132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>128</v>
+      </c>
+      <c r="N8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>130</v>
+      </c>
+      <c r="N11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>178</v>
+      </c>
+      <c r="G34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>181</v>
+      </c>
+      <c r="H37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>201</v>
+      </c>
+      <c r="F65" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="103" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E104" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="107" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="111" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="112" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="113" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="114" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="116" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="118" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="119" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>181</v>
+      </c>
+      <c r="I124" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="125" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>234</v>
+      </c>
+      <c r="E125" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="127" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="128" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>178</v>
+      </c>
+      <c r="H129" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>239</v>
+      </c>
+      <c r="E130" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>230</v>
+      </c>
+      <c r="H131" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>